--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>693.45626011079</v>
+        <v>482.4420275560744</v>
       </c>
       <c r="R2">
-        <v>6241.10634099711</v>
+        <v>4341.978248004671</v>
       </c>
       <c r="S2">
-        <v>0.02370015812184598</v>
+        <v>0.01790418946728285</v>
       </c>
       <c r="T2">
-        <v>0.02370015812184598</v>
+        <v>0.01790418946728285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>2822.654352503517</v>
+        <v>2992.427072371158</v>
       </c>
       <c r="R3">
-        <v>25403.88917253165</v>
+        <v>26931.84365134043</v>
       </c>
       <c r="S3">
-        <v>0.09646946509209142</v>
+        <v>0.111053718810873</v>
       </c>
       <c r="T3">
-        <v>0.09646946509209142</v>
+        <v>0.111053718810873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>926.8704654792976</v>
+        <v>1198.258850982628</v>
       </c>
       <c r="R4">
-        <v>8341.83418931368</v>
+        <v>10784.32965884365</v>
       </c>
       <c r="S4">
-        <v>0.03167752294401206</v>
+        <v>0.04446928806663308</v>
       </c>
       <c r="T4">
-        <v>0.03167752294401206</v>
+        <v>0.04446928806663308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>3285.202502476767</v>
+        <v>2847.230555205738</v>
       </c>
       <c r="R5">
-        <v>29566.82252229091</v>
+        <v>25625.07499685164</v>
       </c>
       <c r="S5">
-        <v>0.1122779088598093</v>
+        <v>0.1056652455750558</v>
       </c>
       <c r="T5">
-        <v>0.1122779088598093</v>
+        <v>0.1056652455750559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>259.70081934358</v>
+        <v>170.4250796265912</v>
       </c>
       <c r="R6">
-        <v>2337.30737409222</v>
+        <v>1533.82571663932</v>
       </c>
       <c r="S6">
-        <v>0.008875758770758604</v>
+        <v>0.006324745236372669</v>
       </c>
       <c r="T6">
-        <v>0.008875758770758604</v>
+        <v>0.006324745236372669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>1057.089956837033</v>
       </c>
       <c r="R7">
-        <v>9513.809611533299</v>
+        <v>9513.809611533301</v>
       </c>
       <c r="S7">
-        <v>0.03612801638282191</v>
+        <v>0.03923028631449874</v>
       </c>
       <c r="T7">
-        <v>0.03612801638282191</v>
+        <v>0.03923028631449875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>347.1149272945955</v>
+        <v>423.2909830150446</v>
       </c>
       <c r="R8">
-        <v>3124.03434565136</v>
+        <v>3809.618847135401</v>
       </c>
       <c r="S8">
-        <v>0.01186329857635239</v>
+        <v>0.01570900030846274</v>
       </c>
       <c r="T8">
-        <v>0.01186329857635239</v>
+        <v>0.01570900030846274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>1230.315206133533</v>
+        <v>1005.798554790714</v>
       </c>
       <c r="R9">
-        <v>11072.8368552018</v>
+        <v>9052.18699311642</v>
       </c>
       <c r="S9">
-        <v>0.04204831162735159</v>
+        <v>0.03732678096499194</v>
       </c>
       <c r="T9">
-        <v>0.04204831162735159</v>
+        <v>0.03732678096499195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>161.898942597135</v>
+        <v>97.23632878011867</v>
       </c>
       <c r="R10">
-        <v>1457.090483374215</v>
+        <v>875.126959021068</v>
       </c>
       <c r="S10">
-        <v>0.005533197636284577</v>
+        <v>0.003608594513213098</v>
       </c>
       <c r="T10">
-        <v>0.005533197636284577</v>
+        <v>0.003608594513213098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>658.995788594525</v>
+        <v>603.1245331871301</v>
       </c>
       <c r="R11">
-        <v>5930.962097350725</v>
+        <v>5428.12079868417</v>
       </c>
       <c r="S11">
-        <v>0.02252240738128973</v>
+        <v>0.02238290882171078</v>
       </c>
       <c r="T11">
-        <v>0.02252240738128973</v>
+        <v>0.02238290882171078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>216.3933861692133</v>
+        <v>241.5094144846067</v>
       </c>
       <c r="R12">
-        <v>1947.54047552292</v>
+        <v>2173.58473036146</v>
       </c>
       <c r="S12">
-        <v>0.007395646652483419</v>
+        <v>0.008962797741667227</v>
       </c>
       <c r="T12">
-        <v>0.007395646652483419</v>
+        <v>0.008962797741667227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>766.9853773956502</v>
+        <v>573.8601335817619</v>
       </c>
       <c r="R13">
-        <v>6902.868396560852</v>
+        <v>5164.741202235858</v>
       </c>
       <c r="S13">
-        <v>0.02621315253324913</v>
+        <v>0.021296860498278</v>
       </c>
       <c r="T13">
-        <v>0.02621315253324913</v>
+        <v>0.021296860498278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>1510.428561621046</v>
+        <v>978.506712837417</v>
       </c>
       <c r="R14">
-        <v>13593.85705458941</v>
+        <v>8806.560415536753</v>
       </c>
       <c r="S14">
-        <v>0.05162170680592314</v>
+        <v>0.03631393738725003</v>
       </c>
       <c r="T14">
-        <v>0.05162170680592314</v>
+        <v>0.03631393738725003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>6148.070179544023</v>
+        <v>6069.350949428347</v>
       </c>
       <c r="R15">
-        <v>55332.6316158962</v>
+        <v>54624.15854485513</v>
       </c>
       <c r="S15">
-        <v>0.2101217391506711</v>
+        <v>0.2252432481732072</v>
       </c>
       <c r="T15">
-        <v>0.2101217391506711</v>
+        <v>0.2252432481732072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>2018.831906945736</v>
+        <v>2430.352793563514</v>
       </c>
       <c r="R16">
-        <v>18169.48716251163</v>
+        <v>21873.17514207163</v>
       </c>
       <c r="S16">
-        <v>0.06899733720537411</v>
+        <v>0.0901942500920356</v>
       </c>
       <c r="T16">
-        <v>0.06899733720537413</v>
+        <v>0.0901942500920356</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>7155.553963356073</v>
+        <v>5774.858018439943</v>
       </c>
       <c r="R17">
-        <v>64399.98567020466</v>
+        <v>51973.72216595949</v>
       </c>
       <c r="S17">
-        <v>0.2445543722596815</v>
+        <v>0.214314148028467</v>
       </c>
       <c r="T17">
-        <v>0.2445543722596815</v>
+        <v>0.214314148028467</v>
       </c>
     </row>
   </sheetData>
